--- a/DataSource/excel/shipStyle.xlsx
+++ b/DataSource/excel/shipStyle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="1760" yWindow="9480" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="shipStyle.csv" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>0;0;0;0;1;0;0</t>
+  </si>
+  <si>
+    <t>卡鲁提拉号</t>
   </si>
 </sst>
 </file>
@@ -268,8 +271,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,13 +286,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,15 +624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="70.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -746,6 +756,26 @@
       </c>
       <c r="F6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/shipStyle.xlsx
+++ b/DataSource/excel/shipStyle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="9480" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="shipStyle.csv" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,16 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>由;分隔, 分别表示，房间类型，坐标x，坐标y</t>
+          <t>由;分隔, 分别表示，房间类型，坐标x，坐标y
+1：船帆
+2：瞭望
+3：甲板
+4：操舵
+5：船长室
+6：大副房间
+7：功能房
+8：储藏室
+9：测量室</t>
         </r>
       </text>
     </comment>
@@ -136,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -183,20 +192,26 @@
     <t>equipList</t>
   </si>
   <si>
-    <t>2_42_370;1_225_340;3_97_266;3_177_266;3_257_266;4_337_266</t>
-  </si>
-  <si>
-    <t>0;0;0;0;1;0;0</t>
-  </si>
-  <si>
     <t>卡鲁提拉号</t>
+  </si>
+  <si>
+    <t>2_42_370;1_275_340;3_97_266;3_177_266;9_257_266;4_337_266;5_257_202;6_337_202;7_97_202;7_177_202;8_417_202;8_417_266;8_497_266</t>
+  </si>
+  <si>
+    <t>0;1;0;0;0;0;0;0;0;1;1;2;2</t>
+  </si>
+  <si>
+    <t>2_42_370;1_148_340;1_275_340;3_97_266;3_177_266;9_257_266;4_337_266;5_257_202;6_337_202;7_97_202;7_177_202;8_417_202;8_417_266;8_497_266</t>
+  </si>
+  <si>
+    <t>0;2;2;0;0;0;0;0;0;0;1;1;2;2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +268,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,20 +301,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,14 +652,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="70.5" customWidth="1"/>
+    <col min="5" max="5" width="125.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -691,11 +716,11 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -763,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -771,11 +796,11 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/excel/shipStyle.xlsx
+++ b/DataSource/excel/shipStyle.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Documents/mygit/SailingGame/DataSource/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="shipStyle.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
     <author>Yujie Liu</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -153,9 +161,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>guildName</t>
-  </si>
-  <si>
     <t>走舸船</t>
   </si>
   <si>
@@ -192,9 +197,6 @@
     <t>equipList</t>
   </si>
   <si>
-    <t>卡鲁提拉号</t>
-  </si>
-  <si>
     <t>2_42_370;1_275_340;3_97_266;3_177_266;9_257_266;4_337_266;5_257_202;6_337_202;7_97_202;7_177_202;8_417_202;8_417_266;8_497_266</t>
   </si>
   <si>
@@ -205,6 +207,72 @@
   </si>
   <si>
     <t>0;2;2;0;0;0;0;0;0;0;1;1;2;2</t>
+  </si>
+  <si>
+    <t>小型三角帆船</t>
+  </si>
+  <si>
+    <t>小型方形帆船</t>
+  </si>
+  <si>
+    <t>中型双桅三角帆船</t>
+  </si>
+  <si>
+    <t>大型三桅方帆宽身船型</t>
+  </si>
+  <si>
+    <t>中型西班牙方形帆船型</t>
+  </si>
+  <si>
+    <t>大型西班牙方形帆船型</t>
+  </si>
+  <si>
+    <t>英国双桅三角帆船型</t>
+  </si>
+  <si>
+    <t>中型大桅横方形帆船型</t>
+  </si>
+  <si>
+    <t>中型大桅方形帆船型</t>
+  </si>
+  <si>
+    <t>小型桨帆并用船型</t>
+  </si>
+  <si>
+    <t>中型桨帆并用船型</t>
+  </si>
+  <si>
+    <t>大型桨帆并用船型</t>
+  </si>
+  <si>
+    <t>巨星桨帆并用船型</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>styleName</t>
+  </si>
+  <si>
+    <t>cannonId</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>maxSailorNum</t>
+  </si>
+  <si>
+    <t>minSailorNum</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -324,6 +392,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -649,41 +722,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N7" sqref="H7:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="125.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="125.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -691,126 +792,793 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>5000</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="M5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>74000</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>120</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>1200</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>1200</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>1200</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>1200</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>1200</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>1200</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>1200</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>1200</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>1200</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>1200</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>1200</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>1200</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>1200</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DataSource/excel/shipStyle.xlsx
+++ b/DataSource/excel/shipStyle.xlsx
@@ -206,9 +206,6 @@
     <t>2_42_370;1_148_340;1_275_340;3_97_266;3_177_266;9_257_266;4_337_266;5_257_202;6_337_202;7_97_202;7_177_202;8_417_202;8_417_266;8_497_266</t>
   </si>
   <si>
-    <t>0;2;2;0;0;0;0;0;0;0;1;1;2;2</t>
-  </si>
-  <si>
     <t>小型三角帆船</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>0;2;2;0;-1;0;0;0;0;0;1;1;2;2</t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="H7:N19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="125.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
@@ -745,10 +745,10 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -763,25 +763,25 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>13</v>
@@ -1097,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>24</v>
@@ -1141,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>29</v>
@@ -1185,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>30</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>31</v>
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -1405,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -1449,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -1537,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
